--- a/Gantt Template.xlsx
+++ b/Gantt Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\Class\ML\Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xingu/Documents/s526/I526_AML_SP19/class work/S526_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D25EFEF-B005-45E5-BBBF-33530EF3B2B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC97C03-60DB-A14B-B3B8-8CAFDA1AB2BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{E1F799A1-0B53-4BCC-A5F5-D07B6424CFA3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{E1F799A1-0B53-4BCC-A5F5-D07B6424CFA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="35">
   <si>
     <t>Task</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>Compare old models to new model</t>
+  </si>
+  <si>
+    <t>Xin Gu</t>
   </si>
 </sst>
 </file>
@@ -545,18 +548,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4047A6DF-1D35-435D-938D-DCB517A4C13A}">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
-    <col min="8" max="11" width="9.140625" style="3"/>
-    <col min="16" max="19" width="9.140625" style="3"/>
+    <col min="8" max="11" width="9.1640625" style="3"/>
+    <col min="16" max="19" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -615,7 +620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -627,7 +632,9 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
+      <c r="H2" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
@@ -640,7 +647,7 @@
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>12</v>
@@ -650,7 +657,9 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
+      <c r="H3" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
@@ -663,7 +672,7 @@
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -675,7 +684,9 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
+      <c r="H4" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -688,7 +699,7 @@
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>10</v>
@@ -698,7 +709,9 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
+      <c r="H5" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -711,7 +724,7 @@
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>13</v>
@@ -721,7 +734,9 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
+      <c r="H6" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
@@ -734,7 +749,7 @@
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>25</v>
       </c>
@@ -759,7 +774,7 @@
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>15</v>
@@ -782,7 +797,7 @@
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>16</v>
@@ -805,7 +820,7 @@
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
@@ -830,7 +845,7 @@
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>19</v>
@@ -853,7 +868,7 @@
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
@@ -878,7 +893,7 @@
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>21</v>
@@ -901,7 +916,7 @@
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>22</v>
@@ -924,7 +939,7 @@
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -949,7 +964,7 @@
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
         <v>30</v>
@@ -972,7 +987,7 @@
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>24</v>
@@ -995,7 +1010,7 @@
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>25</v>
       </c>
@@ -1011,7 +1026,9 @@
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
-      <c r="L18" s="6"/>
+      <c r="L18" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
@@ -1020,7 +1037,7 @@
       <c r="R18" s="7"/>
       <c r="S18" s="7"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>26</v>
@@ -1034,7 +1051,9 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
-      <c r="L19" s="6"/>
+      <c r="L19" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
@@ -1043,7 +1062,7 @@
       <c r="R19" s="7"/>
       <c r="S19" s="7"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>17</v>
       </c>
@@ -1059,7 +1078,9 @@
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
-      <c r="L20" s="6"/>
+      <c r="L20" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
@@ -1068,7 +1089,7 @@
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>19</v>
@@ -1082,7 +1103,9 @@
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
-      <c r="L21" s="6"/>
+      <c r="L21" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
@@ -1091,7 +1114,7 @@
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>27</v>
       </c>
@@ -1116,7 +1139,7 @@
       <c r="R22" s="7"/>
       <c r="S22" s="7"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
         <v>28</v>
@@ -1139,7 +1162,7 @@
       <c r="R23" s="7"/>
       <c r="S23" s="7"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
         <v>22</v>
@@ -1162,7 +1185,7 @@
       <c r="R24" s="7"/>
       <c r="S24" s="7"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>8</v>
       </c>
@@ -1187,7 +1210,7 @@
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>30</v>
@@ -1210,7 +1233,7 @@
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>24</v>
@@ -1233,7 +1256,7 @@
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>25</v>
       </c>
@@ -1258,7 +1281,7 @@
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>31</v>
@@ -1281,7 +1304,7 @@
       <c r="R29" s="7"/>
       <c r="S29" s="7"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>17</v>
       </c>
@@ -1306,7 +1329,7 @@
       <c r="R30" s="7"/>
       <c r="S30" s="7"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
         <v>19</v>
@@ -1329,7 +1352,7 @@
       <c r="R31" s="7"/>
       <c r="S31" s="7"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>32</v>
       </c>
@@ -1349,12 +1372,14 @@
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
-      <c r="P32" s="7"/>
+      <c r="P32" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
       <c r="S32" s="7"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
         <v>28</v>
@@ -1377,7 +1402,7 @@
       <c r="R33" s="7"/>
       <c r="S33" s="7"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
         <v>22</v>

--- a/Gantt Template.xlsx
+++ b/Gantt Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xingu/Documents/s526/I526_AML_SP19/class work/S526_project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sina\Box Sync\Classes\5th Semester\Applied machine learning\final project\S526_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC97C03-60DB-A14B-B3B8-8CAFDA1AB2BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA6A28B-9BF0-4FE7-AA47-58C62491264F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{E1F799A1-0B53-4BCC-A5F5-D07B6424CFA3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E1F799A1-0B53-4BCC-A5F5-D07B6424CFA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="36">
   <si>
     <t>Task</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>Xin Gu</t>
+  </si>
+  <si>
+    <t>SK</t>
   </si>
 </sst>
 </file>
@@ -548,20 +551,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4047A6DF-1D35-435D-938D-DCB517A4C13A}">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
-    <col min="8" max="11" width="9.1640625" style="3"/>
-    <col min="16" max="19" width="9.1640625" style="3"/>
+    <col min="8" max="11" width="9.109375" style="3"/>
+    <col min="16" max="19" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -620,7 +623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -647,7 +650,7 @@
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>12</v>
@@ -672,7 +675,7 @@
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -699,7 +702,7 @@
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>10</v>
@@ -724,7 +727,7 @@
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>13</v>
@@ -749,7 +752,7 @@
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>25</v>
       </c>
@@ -761,7 +764,9 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="7"/>
+      <c r="H7" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -774,7 +779,7 @@
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>15</v>
@@ -784,7 +789,9 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
@@ -797,7 +804,7 @@
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>16</v>
@@ -807,7 +814,9 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="7"/>
+      <c r="H9" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -820,7 +829,7 @@
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
@@ -832,7 +841,9 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
@@ -845,7 +856,7 @@
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>19</v>
@@ -868,7 +879,7 @@
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
@@ -893,7 +904,7 @@
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>21</v>
@@ -916,7 +927,7 @@
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>22</v>
@@ -939,7 +950,7 @@
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -964,7 +975,7 @@
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
         <v>30</v>
@@ -987,7 +998,7 @@
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>24</v>
@@ -1010,7 +1021,7 @@
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>25</v>
       </c>
@@ -1037,7 +1048,7 @@
       <c r="R18" s="7"/>
       <c r="S18" s="7"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>26</v>
@@ -1062,7 +1073,7 @@
       <c r="R19" s="7"/>
       <c r="S19" s="7"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>17</v>
       </c>
@@ -1089,7 +1100,7 @@
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>19</v>
@@ -1114,7 +1125,7 @@
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>27</v>
       </c>
@@ -1130,7 +1141,9 @@
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
-      <c r="L22" s="6"/>
+      <c r="L22" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
@@ -1139,7 +1152,7 @@
       <c r="R22" s="7"/>
       <c r="S22" s="7"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
         <v>28</v>
@@ -1153,7 +1166,9 @@
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="6"/>
+      <c r="L23" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
@@ -1162,7 +1177,7 @@
       <c r="R23" s="7"/>
       <c r="S23" s="7"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
         <v>22</v>
@@ -1185,7 +1200,7 @@
       <c r="R24" s="7"/>
       <c r="S24" s="7"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>8</v>
       </c>
@@ -1210,7 +1225,7 @@
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>30</v>
@@ -1224,7 +1239,9 @@
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
-      <c r="L26" s="6"/>
+      <c r="L26" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
@@ -1233,7 +1250,7 @@
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>24</v>
@@ -1256,7 +1273,7 @@
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>25</v>
       </c>
@@ -1281,7 +1298,7 @@
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>31</v>
@@ -1304,7 +1321,7 @@
       <c r="R29" s="7"/>
       <c r="S29" s="7"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>17</v>
       </c>
@@ -1329,7 +1346,7 @@
       <c r="R30" s="7"/>
       <c r="S30" s="7"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
         <v>19</v>
@@ -1352,7 +1369,7 @@
       <c r="R31" s="7"/>
       <c r="S31" s="7"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>32</v>
       </c>
@@ -1379,7 +1396,7 @@
       <c r="R32" s="7"/>
       <c r="S32" s="7"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
         <v>28</v>
@@ -1397,12 +1414,14 @@
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
       <c r="O33" s="6"/>
-      <c r="P33" s="7"/>
+      <c r="P33" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
       <c r="S33" s="7"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
         <v>22</v>
